--- a/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>F150</t>
+  </si>
+  <si>
+    <t>Fry</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A3:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A5:A14"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,13 +714,16 @@
       <c r="R4">
         <v>17</v>
       </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
       <c r="T4">
         <f t="shared" ref="T4" ca="1" si="0">RANDBETWEEN(250,330) / 10</f>
-        <v>25.3</v>
+        <v>32.9</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4" ca="1" si="1">RANDBETWEEN(300,400)</f>
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="V4" t="s">
         <v>34</v>

--- a/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,11 +719,11 @@
       </c>
       <c r="T4">
         <f t="shared" ref="T4" ca="1" si="0">RANDBETWEEN(250,330) / 10</f>
-        <v>32.9</v>
+        <v>26.4</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4" ca="1" si="1">RANDBETWEEN(300,400)</f>
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="V4" t="s">
         <v>34</v>

--- a/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
@@ -719,11 +719,11 @@
       </c>
       <c r="T4">
         <f t="shared" ref="T4" ca="1" si="0">RANDBETWEEN(250,330) / 10</f>
-        <v>26.4</v>
+        <v>32.6</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4" ca="1" si="1">RANDBETWEEN(300,400)</f>
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="V4" t="s">
         <v>34</v>

--- a/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-indv-distribution.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\test\parser_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47452945-F6C0-44F1-88B4-128A57D9D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
     <sheet name="Individuals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,77 +504,77 @@
     <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -575,11 +585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,77 +607,77 @@
     <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -719,11 +729,11 @@
       </c>
       <c r="T4">
         <f t="shared" ref="T4" ca="1" si="0">RANDBETWEEN(250,330) / 10</f>
-        <v>32.6</v>
+        <v>30.1</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4" ca="1" si="1">RANDBETWEEN(300,400)</f>
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="V4" t="s">
         <v>34</v>
